--- a/results/8_dts-compare/comparison.xlsx
+++ b/results/8_dts-compare/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fcristiani/Documents/dev/proglang/dts-generate-results/results/8_dts-compare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A592CD0B-DE0C-5B49-BB76-DE6A32B91AAF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{797EA0C1-61EB-2647-942D-ABF368B48478}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24240" yWindow="-20900" windowWidth="33700" windowHeight="19880" xr2:uid="{F92E8F4B-F673-3845-BDE5-173550B9BBE7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F92E8F4B-F673-3845-BDE5-173550B9BBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Considered modules" sheetId="2" r:id="rId1"/>
@@ -6657,8 +6657,8 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27550,7 +27550,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
